--- a/Drawings/Target3001/Header_Tables.xlsx
+++ b/Drawings/Target3001/Header_Tables.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Develop\FYP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Develop\FYP\Drawings\Target3001\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD6659B9-D727-40CE-BCFE-A4DF2FE27AC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{912D3CEA-6F9D-413A-B4F4-8191958CE36D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="31800" xr2:uid="{1169C5DA-BBE0-4116-BBF3-A5E12840D734}"/>
+    <workbookView xWindow="28800" yWindow="0" windowWidth="28800" windowHeight="31800" activeTab="3" xr2:uid="{1169C5DA-BBE0-4116-BBF3-A5E12840D734}"/>
   </bookViews>
   <sheets>
     <sheet name="DAC_And_CS_Header" sheetId="1" r:id="rId1"/>
     <sheet name="DAC_OUTPUT" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="ADC_Analog_Output" sheetId="3" r:id="rId3"/>
+    <sheet name="ADC_Header" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="110">
   <si>
     <t>Header Pin</t>
   </si>
@@ -284,13 +285,97 @@
   </si>
   <si>
     <t xml:space="preserve">    D1_MCP4811_VOUTB</t>
+  </si>
+  <si>
+    <t>MCP3008 Connection</t>
+  </si>
+  <si>
+    <t>U1_ADC_CH7</t>
+  </si>
+  <si>
+    <t>U2_ADC_CH0</t>
+  </si>
+  <si>
+    <t>U1_ADC_CH6</t>
+  </si>
+  <si>
+    <t>U1_ADC_CH1</t>
+  </si>
+  <si>
+    <t>U1_ADC_CH5</t>
+  </si>
+  <si>
+    <t>U1_ADC_CH2</t>
+  </si>
+  <si>
+    <t>U2_ADC_CH2</t>
+  </si>
+  <si>
+    <t>U2_ADC_CH3</t>
+  </si>
+  <si>
+    <t>U2_ADC_CH4</t>
+  </si>
+  <si>
+    <t>U2_ADC_CH5</t>
+  </si>
+  <si>
+    <t>U2_ADC_CH6</t>
+  </si>
+  <si>
+    <t>U2_ADC_CH7</t>
+  </si>
+  <si>
+    <t>U1_ADC_CH3</t>
+  </si>
+  <si>
+    <t>U1_ADC_CH4</t>
+  </si>
+  <si>
+    <t>U1_ADC_CH0</t>
+  </si>
+  <si>
+    <t>MCP3008 U1</t>
+  </si>
+  <si>
+    <t>MCP3008 U2</t>
+  </si>
+  <si>
+    <t>SPI_Data_In (Duo)</t>
+  </si>
+  <si>
+    <t>Din</t>
+  </si>
+  <si>
+    <t>CLK</t>
+  </si>
+  <si>
+    <t>Vref</t>
+  </si>
+  <si>
+    <t>CS_U2</t>
+  </si>
+  <si>
+    <t>CS_U1</t>
+  </si>
+  <si>
+    <t>Dout_U2</t>
+  </si>
+  <si>
+    <t>Dout_U1</t>
+  </si>
+  <si>
+    <t>A&amp;D_GND</t>
+  </si>
+  <si>
+    <t>ADC_Header_1*12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -309,6 +394,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -883,8 +974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFC85674-D21E-4BE3-BC4A-758C244E3C46}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1133,7 +1224,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
+      <selection activeCell="C21" sqref="A1:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1382,12 +1473,511 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41BC11EE-7895-4E9E-A2BE-F36EFA9FFEFC}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="17" t="str">
+        <f xml:space="preserve"> "MCP3008_" &amp; B2</f>
+        <v>MCP3008_U1_ADC_CH7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="17" t="str">
+        <f t="shared" ref="C3:C17" si="0" xml:space="preserve"> "MCP3008_" &amp; B3</f>
+        <v>MCP3008_U2_ADC_CH0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>MCP3008_U1_ADC_CH6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>MCP3008_U1_ADC_CH1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>MCP3008_U1_ADC_CH5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>MCP3008_U2_ADC_CH2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>MCP3008_U1_ADC_CH4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>MCP3008_U2_ADC_CH3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>MCP3008_U1_ADC_CH3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>MCP3008_U2_ADC_CH4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>MCP3008_U1_ADC_CH2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>MCP3008_U2_ADC_CH5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>MCP3008_U1_ADC_CH1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>MCP3008_U2_ADC_CH6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>MCP3008_U1_ADC_CH0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>MCP3008_U2_ADC_CH7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E314D53A-82FA-428C-ABAB-4BBAF6D8ADCE}">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="37" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Drawings/Target3001/Header_Tables.xlsx
+++ b/Drawings/Target3001/Header_Tables.xlsx
@@ -8,15 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Develop\FYP\Drawings\Target3001\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{912D3CEA-6F9D-413A-B4F4-8191958CE36D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E2901E-54E0-49B2-9361-D8314860B815}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="0" windowWidth="28800" windowHeight="31800" activeTab="3" xr2:uid="{1169C5DA-BBE0-4116-BBF3-A5E12840D734}"/>
+    <workbookView xWindow="28800" yWindow="0" windowWidth="28800" windowHeight="31800" activeTab="6" xr2:uid="{1169C5DA-BBE0-4116-BBF3-A5E12840D734}"/>
   </bookViews>
   <sheets>
     <sheet name="DAC_And_CS_Header" sheetId="1" r:id="rId1"/>
     <sheet name="DAC_OUTPUT" sheetId="2" r:id="rId2"/>
     <sheet name="ADC_Analog_Output" sheetId="3" r:id="rId3"/>
     <sheet name="ADC_Header" sheetId="4" r:id="rId4"/>
+    <sheet name="Digital_Output" sheetId="5" r:id="rId5"/>
+    <sheet name="Digital_OUT_Header" sheetId="6" r:id="rId6"/>
+    <sheet name="Digital_Input" sheetId="7" r:id="rId7"/>
+    <sheet name="DIgital_In_Header" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="182">
   <si>
     <t>Header Pin</t>
   </si>
@@ -369,13 +373,229 @@
   </si>
   <si>
     <t>ADC_Header_1*12</t>
+  </si>
+  <si>
+    <t>Digital_OUT_1</t>
+  </si>
+  <si>
+    <t>Digital_OUT_2</t>
+  </si>
+  <si>
+    <t>Digital_OUT_3</t>
+  </si>
+  <si>
+    <t>Digital_OUT_4</t>
+  </si>
+  <si>
+    <t>Digital_OUT_5</t>
+  </si>
+  <si>
+    <t>Digital_OUT_6</t>
+  </si>
+  <si>
+    <t>Digital_OUT_7</t>
+  </si>
+  <si>
+    <t>Digital_OUT_8</t>
+  </si>
+  <si>
+    <t>Digital_OUT_9</t>
+  </si>
+  <si>
+    <t>Digital_OUT_10</t>
+  </si>
+  <si>
+    <t>Digital_OUT_11</t>
+  </si>
+  <si>
+    <t>Digital_OUT_12</t>
+  </si>
+  <si>
+    <t>Digital_OUT_13</t>
+  </si>
+  <si>
+    <t>Digital_OUT_14</t>
+  </si>
+  <si>
+    <t>Digital_OUT_15</t>
+  </si>
+  <si>
+    <t>Digital_OUT_16</t>
+  </si>
+  <si>
+    <t>U1_Q0</t>
+  </si>
+  <si>
+    <t>U1_Q1</t>
+  </si>
+  <si>
+    <t>U1_Q2</t>
+  </si>
+  <si>
+    <t>U1_Q3</t>
+  </si>
+  <si>
+    <t>U1_Q4</t>
+  </si>
+  <si>
+    <t>U1_Q5</t>
+  </si>
+  <si>
+    <t>U1_Q6</t>
+  </si>
+  <si>
+    <t>U1_Q7</t>
+  </si>
+  <si>
+    <t>U2_ Q0</t>
+  </si>
+  <si>
+    <t>U2_ Q1</t>
+  </si>
+  <si>
+    <t>U2_ Q2</t>
+  </si>
+  <si>
+    <t>U2_ Q3</t>
+  </si>
+  <si>
+    <t>U2_ Q4</t>
+  </si>
+  <si>
+    <t>U2_ Q5</t>
+  </si>
+  <si>
+    <t>U2_ Q6</t>
+  </si>
+  <si>
+    <t>U2_ Q7</t>
+  </si>
+  <si>
+    <t>74HC595 Connection</t>
+  </si>
+  <si>
+    <t>74HC595 U1</t>
+  </si>
+  <si>
+    <t>74HC595 U2</t>
+  </si>
+  <si>
+    <t>LATCH</t>
+  </si>
+  <si>
+    <t>DATA</t>
+  </si>
+  <si>
+    <t>Q7'</t>
+  </si>
+  <si>
+    <t>Digital_Output_BUS_8*1</t>
+  </si>
+  <si>
+    <t>74HC165 Connection</t>
+  </si>
+  <si>
+    <t>U1_D0</t>
+  </si>
+  <si>
+    <t>U1_D1</t>
+  </si>
+  <si>
+    <t>U1_D2</t>
+  </si>
+  <si>
+    <t>U1_D3</t>
+  </si>
+  <si>
+    <t>U1_D4</t>
+  </si>
+  <si>
+    <t>U1_D5</t>
+  </si>
+  <si>
+    <t>U1_D6</t>
+  </si>
+  <si>
+    <t>U1_D7</t>
+  </si>
+  <si>
+    <t>U2_ D0</t>
+  </si>
+  <si>
+    <t>U2_ D1</t>
+  </si>
+  <si>
+    <t>U2_ D2</t>
+  </si>
+  <si>
+    <t>U2_ D3</t>
+  </si>
+  <si>
+    <t>U2_ D4</t>
+  </si>
+  <si>
+    <t>U2_ D5</t>
+  </si>
+  <si>
+    <t>U2_ D6</t>
+  </si>
+  <si>
+    <t>U2_ D7</t>
+  </si>
+  <si>
+    <t>Digital_IN_1</t>
+  </si>
+  <si>
+    <t>Digital_IN_2</t>
+  </si>
+  <si>
+    <t>Digital_IN_3</t>
+  </si>
+  <si>
+    <t>Digital_IN_4</t>
+  </si>
+  <si>
+    <t>Digital_IN_5</t>
+  </si>
+  <si>
+    <t>Digital_IN_6</t>
+  </si>
+  <si>
+    <t>Digital_IN_7</t>
+  </si>
+  <si>
+    <t>Digital_IN_8</t>
+  </si>
+  <si>
+    <t>Digital_IN_9</t>
+  </si>
+  <si>
+    <t>Digital_IN_10</t>
+  </si>
+  <si>
+    <t>Digital_IN_11</t>
+  </si>
+  <si>
+    <t>Digital_IN_12</t>
+  </si>
+  <si>
+    <t>Digital_IN_13</t>
+  </si>
+  <si>
+    <t>Digital_IN_14</t>
+  </si>
+  <si>
+    <t>Digital_IN_15</t>
+  </si>
+  <si>
+    <t>Digital_IN_16</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -400,6 +620,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -572,7 +799,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -636,6 +863,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1476,7 +1706,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C21" sqref="A1:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1743,8 +1973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E314D53A-82FA-428C-ABAB-4BBAF6D8ADCE}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1980,4 +2210,693 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EED6B09C-5866-4B46-AB16-4CF9C5E025AE}">
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="A1:C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="17"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4A1FE47-792E-4C5B-871D-8B8E78BB60A7}">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.85546875" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05A8B82B-DFCD-4D8F-A1C9-1038553F50C4}">
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I73" sqref="I73"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="17"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1D1DE12-74FD-4059-B821-93BCBC218956}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M64" sqref="M64"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Drawings/Target3001/Header_Tables.xlsx
+++ b/Drawings/Target3001/Header_Tables.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Develop\FYP\Drawings\Target3001\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E2901E-54E0-49B2-9361-D8314860B815}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC68A10B-9737-4288-AE55-33707B254705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="0" windowWidth="28800" windowHeight="31800" activeTab="6" xr2:uid="{1169C5DA-BBE0-4116-BBF3-A5E12840D734}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="31800" firstSheet="2" activeTab="6" xr2:uid="{1169C5DA-BBE0-4116-BBF3-A5E12840D734}"/>
   </bookViews>
   <sheets>
-    <sheet name="DAC_And_CS_Header" sheetId="1" r:id="rId1"/>
-    <sheet name="DAC_OUTPUT" sheetId="2" r:id="rId2"/>
-    <sheet name="ADC_Analog_Output" sheetId="3" r:id="rId3"/>
+    <sheet name="PIn_Config_Nuleo" sheetId="9" r:id="rId1"/>
+    <sheet name="DAC_And_CS_Header" sheetId="1" r:id="rId2"/>
+    <sheet name="DAC_OUTPUT" sheetId="2" r:id="rId3"/>
     <sheet name="ADC_Header" sheetId="4" r:id="rId4"/>
-    <sheet name="Digital_Output" sheetId="5" r:id="rId5"/>
-    <sheet name="Digital_OUT_Header" sheetId="6" r:id="rId6"/>
-    <sheet name="Digital_Input" sheetId="7" r:id="rId7"/>
-    <sheet name="DIgital_In_Header" sheetId="8" r:id="rId8"/>
+    <sheet name="ADC_Analog_Output" sheetId="3" r:id="rId5"/>
+    <sheet name="Digital_Output" sheetId="5" r:id="rId6"/>
+    <sheet name="Digital_OUT_Header" sheetId="6" r:id="rId7"/>
+    <sheet name="Digital_Input" sheetId="7" r:id="rId8"/>
+    <sheet name="DIgital_In_Header" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="357">
   <si>
     <t>Header Pin</t>
   </si>
@@ -69,9 +70,6 @@
     <t>PB2</t>
   </si>
   <si>
-    <t>OE (74HC595)</t>
-  </si>
-  <si>
     <t>Pin 3</t>
   </si>
   <si>
@@ -123,9 +121,6 @@
     <t>Pin 10</t>
   </si>
   <si>
-    <t>MR (74HC595)</t>
-  </si>
-  <si>
     <t>Pin 11</t>
   </si>
   <si>
@@ -141,18 +136,12 @@
     <t>TBD</t>
   </si>
   <si>
-    <t xml:space="preserve">DS </t>
-  </si>
-  <si>
     <t>DS</t>
   </si>
   <si>
     <t>VDD</t>
   </si>
   <si>
-    <t>VDD  (3.3V)</t>
-  </si>
-  <si>
     <t>Clock</t>
   </si>
   <si>
@@ -589,6 +578,555 @@
   </si>
   <si>
     <t>Digital_IN_16</t>
+  </si>
+  <si>
+    <t>Pin Number</t>
+  </si>
+  <si>
+    <t>Pin Name</t>
+  </si>
+  <si>
+    <t>PA4</t>
+  </si>
+  <si>
+    <t>PA1</t>
+  </si>
+  <si>
+    <t>PA0</t>
+  </si>
+  <si>
+    <t>NC</t>
+  </si>
+  <si>
+    <t>VIN</t>
+  </si>
+  <si>
+    <t>Ground</t>
+  </si>
+  <si>
+    <t>+5V</t>
+  </si>
+  <si>
+    <t>RESET</t>
+  </si>
+  <si>
+    <t>IOREF</t>
+  </si>
+  <si>
+    <t>E5V</t>
+  </si>
+  <si>
+    <t>PD2</t>
+  </si>
+  <si>
+    <t>PC11</t>
+  </si>
+  <si>
+    <t>PC2</t>
+  </si>
+  <si>
+    <t>VBAT</t>
+  </si>
+  <si>
+    <t>PH1</t>
+  </si>
+  <si>
+    <t>PH0</t>
+  </si>
+  <si>
+    <t>PC15</t>
+  </si>
+  <si>
+    <t>PC14</t>
+  </si>
+  <si>
+    <t>PC13</t>
+  </si>
+  <si>
+    <t>PB7</t>
+  </si>
+  <si>
+    <t>PA15</t>
+  </si>
+  <si>
+    <t>PA14</t>
+  </si>
+  <si>
+    <t>PA13</t>
+  </si>
+  <si>
+    <t>BOOT0</t>
+  </si>
+  <si>
+    <t>PC12</t>
+  </si>
+  <si>
+    <t>PC4</t>
+  </si>
+  <si>
+    <t>AGND</t>
+  </si>
+  <si>
+    <t>PB13</t>
+  </si>
+  <si>
+    <t>PB14</t>
+  </si>
+  <si>
+    <t>PB15</t>
+  </si>
+  <si>
+    <t>PB11</t>
+  </si>
+  <si>
+    <t>PA11</t>
+  </si>
+  <si>
+    <t>PA12</t>
+  </si>
+  <si>
+    <t>U5V</t>
+  </si>
+  <si>
+    <t>PC5</t>
+  </si>
+  <si>
+    <t>PC6</t>
+  </si>
+  <si>
+    <t>PC8</t>
+  </si>
+  <si>
+    <t>PA9</t>
+  </si>
+  <si>
+    <t>PC7</t>
+  </si>
+  <si>
+    <t>PB6</t>
+  </si>
+  <si>
+    <t>PA7</t>
+  </si>
+  <si>
+    <t>PA6</t>
+  </si>
+  <si>
+    <t>PA5</t>
+  </si>
+  <si>
+    <t>AVDD</t>
+  </si>
+  <si>
+    <t>PB9</t>
+  </si>
+  <si>
+    <t>PB8</t>
+  </si>
+  <si>
+    <t>PC9</t>
+  </si>
+  <si>
+    <t>PA3</t>
+  </si>
+  <si>
+    <t>PA2</t>
+  </si>
+  <si>
+    <t>PA10</t>
+  </si>
+  <si>
+    <t>PB3</t>
+  </si>
+  <si>
+    <t>PB5</t>
+  </si>
+  <si>
+    <t>PB4</t>
+  </si>
+  <si>
+    <t>PA8</t>
+  </si>
+  <si>
+    <t>D8</t>
+  </si>
+  <si>
+    <t>D9</t>
+  </si>
+  <si>
+    <t>D10</t>
+  </si>
+  <si>
+    <t>D11</t>
+  </si>
+  <si>
+    <t>D12</t>
+  </si>
+  <si>
+    <t>D13</t>
+  </si>
+  <si>
+    <t>D14</t>
+  </si>
+  <si>
+    <t>D15</t>
+  </si>
+  <si>
+    <t>D0</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A0</t>
+  </si>
+  <si>
+    <t>CN5 Pin 23</t>
+  </si>
+  <si>
+    <t>CN10 Pin 20</t>
+  </si>
+  <si>
+    <t>PA5 (CN5 Pin 5)</t>
+  </si>
+  <si>
+    <r>
+      <t>CN6 Pin 8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (GND)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">	PA7 (CN5 Pin 7)</t>
+  </si>
+  <si>
+    <t>+3.3V (CN6 Pin 16)</t>
+  </si>
+  <si>
+    <t>PC14 (CN7 Pin 25)</t>
+  </si>
+  <si>
+    <t>PC15 (CN7 Pin 27)</t>
+  </si>
+  <si>
+    <t>PA6 (CN5 Pin 12)</t>
+  </si>
+  <si>
+    <t>PA1 (CN9 Pin 16) ！！！！！</t>
+  </si>
+  <si>
+    <t>Connector</t>
+  </si>
+  <si>
+    <t>Pin</t>
+  </si>
+  <si>
+    <t>STM32 Pin</t>
+  </si>
+  <si>
+    <t>Function</t>
+  </si>
+  <si>
+    <t>CN6 Power</t>
+  </si>
+  <si>
+    <t>3.3V Ref</t>
+  </si>
+  <si>
+    <t>NRST</t>
+  </si>
+  <si>
+    <t>+3.3V</t>
+  </si>
+  <si>
+    <t>3.3V input/output</t>
+  </si>
+  <si>
+    <t>5V output</t>
+  </si>
+  <si>
+    <t>Power input</t>
+  </si>
+  <si>
+    <t>CN8 Analog</t>
+  </si>
+  <si>
+    <t>ADC12_IN5</t>
+  </si>
+  <si>
+    <t>ADC12_IN6</t>
+  </si>
+  <si>
+    <t>ADC12_IN9</t>
+  </si>
+  <si>
+    <t>ADC12_IN15</t>
+  </si>
+  <si>
+    <t>PC1 or PB9(1)</t>
+  </si>
+  <si>
+    <t>ADC123_IN2 (PC1) or I2C1_SDA (PB9)</t>
+  </si>
+  <si>
+    <t>PC0 or PB8(1)</t>
+  </si>
+  <si>
+    <t>ADC123_IN1 (PC0) or I2C1_SCL (PB8)</t>
+  </si>
+  <si>
+    <t>CN5 Digital</t>
+  </si>
+  <si>
+    <t>I2C1_SCL</t>
+  </si>
+  <si>
+    <t>I2C1_SDA</t>
+  </si>
+  <si>
+    <t>AREF</t>
+  </si>
+  <si>
+    <t>SPI1_SCK</t>
+  </si>
+  <si>
+    <t>SPI1_MISO</t>
+  </si>
+  <si>
+    <t>TIM17_CH1 or SPI1_MOSI</t>
+  </si>
+  <si>
+    <t>TIM4_CH1 or SPI1_CS</t>
+  </si>
+  <si>
+    <t>TIM3_CH2</t>
+  </si>
+  <si>
+    <t>CN9 Digital</t>
+  </si>
+  <si>
+    <t>TIM2_CH3</t>
+  </si>
+  <si>
+    <t>TIM3_CH1</t>
+  </si>
+  <si>
+    <t>TIM2_CH2</t>
+  </si>
+  <si>
+    <t>USART2_TX</t>
+  </si>
+  <si>
+    <t>USART2_RX</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>CN7 Odd Pins</t>
+  </si>
+  <si>
+    <t>PC10</t>
+  </si>
+  <si>
+    <t>CN7 Even Pins</t>
+  </si>
+  <si>
+    <t>PC1 or PB9</t>
+  </si>
+  <si>
+    <t>CN10 Odd Pins</t>
+  </si>
+  <si>
+    <t>CN10 Even Pins</t>
+  </si>
+  <si>
+    <t>Nucleo Pin _ SPI_2</t>
+  </si>
+  <si>
+    <t>PB12 (SPI2_MISO)</t>
+  </si>
+  <si>
+    <t>PB10 (SPI2_SCK)</t>
+  </si>
+  <si>
+    <t>Pin Configuration</t>
+  </si>
+  <si>
+    <t>Power</t>
+  </si>
+  <si>
+    <t>Reference Voltage</t>
+  </si>
+  <si>
+    <t>GPIO_Output (Chip Select)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SPI1_SCK</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SPI1_MOSI</t>
+  </si>
+  <si>
+    <t>Need Ian's help on this one</t>
+  </si>
+  <si>
+    <t>SPI2_MISO</t>
+  </si>
+  <si>
+    <t>SPI2_SCK</t>
+  </si>
+  <si>
+    <t>VDD (3.3V)</t>
+  </si>
+  <si>
+    <t>GPIO_Output (Data Set)</t>
+  </si>
+  <si>
+    <t>GPIO_Output (Latch)</t>
+  </si>
+  <si>
+    <t>Digital_Input_BUS_8*1</t>
+  </si>
+  <si>
+    <t>74HC165 U1</t>
+  </si>
+  <si>
+    <t>74HC165 U2</t>
+  </si>
+  <si>
+    <t>QS</t>
+  </si>
+  <si>
+    <t>DS*</t>
+  </si>
+  <si>
+    <t>GPIO_Output (Data In)</t>
+  </si>
+  <si>
+    <t>LVS</t>
+  </si>
+  <si>
+    <t>Moule</t>
+  </si>
+  <si>
+    <t>Configeration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADC_Header_Pin 9 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADC_Header_Pin 4 </t>
+  </si>
+  <si>
+    <t>ADC_Header_Pin 8</t>
+  </si>
+  <si>
+    <t>ADC_Header_Pin 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADC_Header_Pin 2 </t>
+  </si>
+  <si>
+    <t>ADC_Pin 6</t>
+  </si>
+  <si>
+    <t>3.3V</t>
+  </si>
+  <si>
+    <t>ADC_Header_Pin 1 ,3,11,12</t>
+  </si>
+  <si>
+    <t>Digital_Out_Pin_4</t>
+  </si>
+  <si>
+    <t>Digital_Out_Pin_7</t>
+  </si>
+  <si>
+    <t>Digital_Out_Pin_5</t>
+  </si>
+  <si>
+    <t>Digital_Out_Pin_1,3,6,8</t>
+  </si>
+  <si>
+    <t>GPIO_CLK</t>
+  </si>
+  <si>
+    <t>DAC_Header_Pin_8</t>
+  </si>
+  <si>
+    <t>DAC_Header_Pin_9</t>
+  </si>
+  <si>
+    <t>DAC_Header, 1,2,3,7,11,12</t>
+  </si>
+  <si>
+    <t>DAC_Header_Pin_4</t>
+  </si>
+  <si>
+    <t>DAC_Header_Pin_5</t>
+  </si>
+  <si>
+    <t>PB8 (CLK)</t>
+  </si>
+  <si>
+    <t>DAC_Header_Pin_6</t>
+  </si>
+  <si>
+    <t>Digital_IN_Pin_4</t>
+  </si>
+  <si>
+    <t>GPIO_Output (Data_In)</t>
+  </si>
+  <si>
+    <t>DAC_Header_Pin_5,  Digital_Out_Pin_7,  Digital_Out_Pin_7</t>
+  </si>
+  <si>
+    <t>Digital_IN_Pin_1,2,4,5,6,8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADC_Pin5, DAC_Pin10, Digital_in_Pin2, Digital_Out_Pin2, </t>
   </si>
 </sst>
 </file>
@@ -651,7 +1189,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -794,12 +1332,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -819,9 +1377,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -832,9 +1387,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -864,8 +1416,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1201,11 +1828,1888 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CA3F4AE-69E8-44F7-90D3-1A030B9FE1A0}">
+  <dimension ref="A1:P111"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" style="21" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" style="21" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" style="21" customWidth="1"/>
+    <col min="4" max="4" width="24" style="21" customWidth="1"/>
+    <col min="5" max="5" width="39.28515625" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" customWidth="1"/>
+    <col min="15" max="15" width="21.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="32" t="s">
+        <v>270</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="1">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="1">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="1">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="1">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>355</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="1">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="1">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="32" t="s">
+        <v>277</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="1">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="1">
+        <v>3</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="1">
+        <v>4</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14" s="1">
+        <v>5</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="1">
+        <v>6</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="32" t="s">
+        <v>286</v>
+      </c>
+      <c r="B16" s="1">
+        <v>10</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="1">
+        <v>9</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+      <c r="B18" s="1">
+        <v>8</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="B19" s="1">
+        <v>7</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>339</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+      <c r="B20" s="1">
+        <v>6</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+      <c r="B21" s="1">
+        <v>5</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
+      <c r="B22" s="1">
+        <v>4</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>333</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="5"/>
+      <c r="B23" s="1">
+        <v>3</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="32" t="s">
+        <v>286</v>
+      </c>
+      <c r="B24" s="1">
+        <v>2</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="5"/>
+      <c r="B25" s="1">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>340</v>
+      </c>
+      <c r="G25" s="16" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="32" t="s">
+        <v>295</v>
+      </c>
+      <c r="B26" s="1">
+        <v>8</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="38" t="s">
+        <v>354</v>
+      </c>
+      <c r="G26" s="39" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="5"/>
+      <c r="B27" s="1">
+        <v>7</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="5"/>
+      <c r="B28" s="1">
+        <v>6</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="5"/>
+      <c r="B29" s="1">
+        <v>5</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="5"/>
+      <c r="B30" s="1">
+        <v>4</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="5"/>
+      <c r="B31" s="1">
+        <v>3</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>352</v>
+      </c>
+      <c r="G31" s="16" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="5"/>
+      <c r="B32" s="1">
+        <v>2</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="7"/>
+      <c r="B33" s="8">
+        <v>1</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G33" s="34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" s="20"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+    </row>
+    <row r="35" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="20"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="32" t="s">
+        <v>302</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
+        <v>1</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A39" s="5">
+        <v>3</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A40" s="5">
+        <v>5</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A41" s="5">
+        <v>7</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A42" s="5">
+        <v>9</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A43" s="5">
+        <v>11</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="K43" s="30"/>
+      <c r="L43" s="30"/>
+      <c r="M43" s="30"/>
+      <c r="N43" s="30"/>
+      <c r="O43" s="30"/>
+      <c r="P43" s="30"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A44" s="5">
+        <v>13</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="K44" s="20"/>
+      <c r="L44" s="20"/>
+      <c r="M44" s="20"/>
+      <c r="N44" s="20"/>
+      <c r="O44" s="21"/>
+      <c r="P44" s="30"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A45" s="5">
+        <v>15</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="K45" s="20"/>
+      <c r="L45" s="20"/>
+      <c r="M45" s="20"/>
+      <c r="N45" s="20"/>
+      <c r="O45" s="21"/>
+      <c r="P45" s="31"/>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A46" s="5">
+        <v>17</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="K46" s="20"/>
+      <c r="L46" s="20"/>
+      <c r="M46" s="20"/>
+      <c r="N46" s="20"/>
+      <c r="O46" s="35"/>
+      <c r="P46" s="31"/>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A47" s="5">
+        <v>19</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="K47" s="20"/>
+      <c r="L47" s="20"/>
+      <c r="M47" s="20"/>
+      <c r="N47" s="20"/>
+      <c r="O47" s="20"/>
+      <c r="P47" s="31"/>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A48" s="5">
+        <v>21</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="K48" s="20"/>
+      <c r="L48" s="20"/>
+      <c r="M48" s="20"/>
+      <c r="N48" s="20"/>
+      <c r="O48" s="21"/>
+      <c r="P48" s="31"/>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A49" s="5">
+        <v>23</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="K49" s="20"/>
+      <c r="L49" s="20"/>
+      <c r="M49" s="20"/>
+      <c r="N49" s="20"/>
+      <c r="O49" s="21"/>
+      <c r="P49" s="31"/>
+    </row>
+    <row r="50" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="5">
+        <v>25</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="K50" s="20"/>
+      <c r="L50" s="20"/>
+      <c r="M50" s="20"/>
+      <c r="N50" s="20"/>
+      <c r="O50" s="21"/>
+      <c r="P50" s="31"/>
+    </row>
+    <row r="51" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="5">
+        <v>27</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="K51" s="20"/>
+      <c r="L51" s="20"/>
+      <c r="M51" s="20"/>
+      <c r="N51" s="20"/>
+      <c r="O51" s="21"/>
+      <c r="P51" s="31"/>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A52" s="5">
+        <v>29</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="K52" s="20"/>
+      <c r="L52" s="20"/>
+      <c r="M52" s="20"/>
+      <c r="N52" s="20"/>
+      <c r="O52" s="21"/>
+      <c r="P52" s="31"/>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A53" s="5">
+        <v>31</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="K53" s="20"/>
+      <c r="L53" s="20"/>
+      <c r="M53" s="20"/>
+      <c r="N53" s="20"/>
+      <c r="O53" s="36"/>
+      <c r="P53" s="37"/>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A54" s="5">
+        <v>33</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="K54" s="20"/>
+      <c r="L54" s="20"/>
+      <c r="M54" s="20"/>
+      <c r="N54" s="20"/>
+      <c r="O54" s="21"/>
+      <c r="P54" s="31"/>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A55" s="5">
+        <v>35</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="K55" s="20"/>
+      <c r="L55" s="20"/>
+      <c r="M55" s="20"/>
+      <c r="N55" s="20"/>
+      <c r="O55" s="21"/>
+      <c r="P55" s="31"/>
+    </row>
+    <row r="56" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="32" t="s">
+        <v>304</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A57" s="5">
+        <v>2</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A58" s="5">
+        <v>4</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A59" s="5">
+        <v>6</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A60" s="5">
+        <v>8</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A61" s="5">
+        <v>10</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A62" s="5">
+        <v>12</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A63" s="5">
+        <v>14</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A64" s="5">
+        <v>16</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="5">
+        <v>18</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="5">
+        <v>20</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="5">
+        <v>22</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="5">
+        <v>24</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="5">
+        <v>26</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="5">
+        <v>28</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="5">
+        <v>30</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="5">
+        <v>32</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="5">
+        <v>34</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="5">
+        <v>36</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A75" s="32" t="s">
+        <v>306</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="5">
+        <v>1</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="5">
+        <v>3</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="5">
+        <v>5</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="5">
+        <v>7</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C79" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="5">
+        <v>9</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C80" s="15" t="s">
+        <v>347</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="5">
+        <v>11</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="5">
+        <v>13</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="5">
+        <v>15</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="5">
+        <v>17</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="5">
+        <v>19</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="5">
+        <v>21</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C86" s="15" t="s">
+        <v>340</v>
+      </c>
+      <c r="D86" s="16" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="5">
+        <v>23</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C87" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="D87" s="16" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="5">
+        <v>25</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C88" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="D88" s="16" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="5">
+        <v>27</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C89" s="15" t="s">
+        <v>351</v>
+      </c>
+      <c r="D89" s="16" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="5">
+        <v>29</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C90" s="15" t="s">
+        <v>348</v>
+      </c>
+      <c r="D90" s="16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="5">
+        <v>31</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C91" s="15" t="s">
+        <v>349</v>
+      </c>
+      <c r="D91" s="16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="5">
+        <v>33</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C92" s="15" t="s">
+        <v>352</v>
+      </c>
+      <c r="D92" s="16" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A93" s="32" t="s">
+        <v>307</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="5">
+        <v>2</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="5">
+        <v>4</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="5">
+        <v>6</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="5">
+        <v>8</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="5">
+        <v>10</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="5">
+        <v>12</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="5">
+        <v>14</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="5">
+        <v>16</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C101" s="15" t="s">
+        <v>345</v>
+      </c>
+      <c r="D101" s="16" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="5">
+        <v>18</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D102" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="5">
+        <v>20</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C103" s="15" t="s">
+        <v>343</v>
+      </c>
+      <c r="D103" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="5">
+        <v>22</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C104" s="15" t="s">
+        <v>342</v>
+      </c>
+      <c r="D104" s="16" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="5">
+        <v>24</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D105" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="5">
+        <v>26</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D106" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="5">
+        <v>28</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D107" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="5">
+        <v>30</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D108" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="5">
+        <v>32</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D109" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="7">
+        <v>34</v>
+      </c>
+      <c r="B110" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="C110" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D110" s="34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111"/>
+      <c r="B111"/>
+      <c r="C111"/>
+      <c r="D111"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFC85674-D21E-4BE3-BC4A-758C244E3C46}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1214,11 +3718,12 @@
     <col min="2" max="2" width="30.5703125" customWidth="1"/>
     <col min="3" max="4" width="26.140625" customWidth="1"/>
     <col min="5" max="5" width="24.85546875" customWidth="1"/>
+    <col min="6" max="6" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -1227,13 +3732,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
@@ -1246,202 +3754,239 @@
       <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E2" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="6" t="s">
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>350</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="9"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="29"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>310</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="E12" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="12"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>4</v>
+      <c r="B14" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -1449,12 +3994,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58694540-B6EE-4213-9030-4FB1C6BD2FEC}">
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C21" sqref="A1:C21"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1466,234 +4011,234 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="15" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="17" t="s">
+      <c r="C4" s="16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C6" s="16" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="17" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C7" s="16" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="17" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C8" s="16" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="17" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C9" s="16" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="17" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="18" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="17" t="s">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="18" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="16" t="s">
+      <c r="C19" s="16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="B16" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
+      <c r="B20" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>49</v>
+      <c r="B21" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1701,12 +4246,295 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E314D53A-82FA-428C-ABAB-4BBAF6D8ADCE}">
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="37" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>259</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="F11" s="26" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="F12" s="25" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>257</v>
+      </c>
+      <c r="F13" s="27" t="s">
+        <v>185</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41BC11EE-7895-4E9E-A2BE-F36EFA9FFEFC}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
-      <selection activeCell="C21" sqref="A1:C21"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1717,249 +4545,249 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
-        <v>82</v>
+      <c r="C1" s="13" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="C2" s="17" t="str">
+      <c r="B2" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="15" t="str">
         <f xml:space="preserve"> "MCP3008_" &amp; B2</f>
         <v>MCP3008_U1_ADC_CH7</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="C3" s="17" t="str">
+      <c r="B3" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="15" t="str">
         <f t="shared" ref="C3:C17" si="0" xml:space="preserve"> "MCP3008_" &amp; B3</f>
         <v>MCP3008_U2_ADC_CH0</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="C4" s="17" t="str">
+      <c r="A4" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="15" t="str">
         <f t="shared" si="0"/>
         <v>MCP3008_U1_ADC_CH6</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="C5" s="17" t="str">
+      <c r="A5" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="15" t="str">
         <f t="shared" si="0"/>
         <v>MCP3008_U1_ADC_CH1</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="C6" s="17" t="str">
+      <c r="A6" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="15" t="str">
         <f t="shared" si="0"/>
         <v>MCP3008_U1_ADC_CH5</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="C7" s="17" t="str">
+      <c r="A7" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="15" t="str">
         <f t="shared" si="0"/>
         <v>MCP3008_U2_ADC_CH2</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="C8" s="17" t="str">
+      <c r="A8" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="15" t="str">
         <f t="shared" si="0"/>
         <v>MCP3008_U1_ADC_CH4</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="C9" s="17" t="str">
+      <c r="A9" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="15" t="str">
         <f t="shared" si="0"/>
         <v>MCP3008_U2_ADC_CH3</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="C10" s="17" t="str">
+      <c r="A10" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" s="15" t="str">
         <f t="shared" si="0"/>
         <v>MCP3008_U1_ADC_CH3</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="C11" s="17" t="str">
+      <c r="A11" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="15" t="str">
         <f t="shared" si="0"/>
         <v>MCP3008_U2_ADC_CH4</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="C12" s="17" t="str">
+      <c r="A12" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="15" t="str">
         <f t="shared" si="0"/>
         <v>MCP3008_U1_ADC_CH2</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="C13" s="17" t="str">
+      <c r="A13" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" s="15" t="str">
         <f t="shared" si="0"/>
         <v>MCP3008_U2_ADC_CH5</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="C14" s="17" t="str">
+      <c r="A14" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="15" t="str">
         <f t="shared" si="0"/>
         <v>MCP3008_U1_ADC_CH1</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="C15" s="17" t="str">
+      <c r="A15" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" s="15" t="str">
         <f t="shared" si="0"/>
         <v>MCP3008_U2_ADC_CH6</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="C16" s="17" t="str">
+      <c r="A16" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" s="15" t="str">
         <f t="shared" si="0"/>
         <v>MCP3008_U1_ADC_CH0</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="C17" s="17" t="str">
+      <c r="A17" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17" s="15" t="str">
         <f t="shared" si="0"/>
         <v>MCP3008_U2_ADC_CH7</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="18" t="s">
+      <c r="A18" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="16" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="18" t="s">
+      <c r="A19" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="16" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="18" t="s">
+      <c r="A20" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="16" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="21" t="s">
+      <c r="A21" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="19" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1969,250 +4797,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E314D53A-82FA-428C-ABAB-4BBAF6D8ADCE}">
-  <dimension ref="A1:E13"/>
-  <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="37" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EED6B09C-5866-4B46-AB16-4CF9C5E025AE}">
   <dimension ref="A1:C21"/>
   <sheetViews>
@@ -2228,231 +4813,231 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
-        <v>142</v>
+      <c r="C1" s="13" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="17"/>
+      <c r="B2" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="15"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C7" s="15" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="17" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C8" s="15" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="17" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C9" s="15" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="17" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C10" s="15" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="17" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C13" s="15" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="17" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C14" s="15" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="17" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C15" s="15" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="17" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C16" s="15" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="17" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C17" s="15" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B18" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C18" s="15" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B19" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C19" s="15" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="16" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B20" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C20" s="15" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
+    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="18" t="s">
+      <c r="B21" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="16" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2462,12 +5047,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4A1FE47-792E-4C5B-871D-8B8E78BB60A7}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F9" sqref="A1:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2476,115 +5061,134 @@
     <col min="2" max="2" width="21.5703125" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" customWidth="1"/>
     <col min="4" max="4" width="18.85546875" customWidth="1"/>
-    <col min="5" max="5" width="21.140625" customWidth="1"/>
+    <col min="5" max="5" width="29.28515625" customWidth="1"/>
+    <col min="6" max="6" width="26.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E5" s="22" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="E6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -2597,39 +5201,48 @@
       <c r="E7" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>19</v>
+      <c r="F7" s="6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="32" t="s">
+        <v>18</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>4</v>
+        <v>98</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="34" t="s">
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -2637,12 +5250,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05A8B82B-DFCD-4D8F-A1C9-1038553F50C4}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I73" sqref="I73"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2653,231 +5266,231 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="13" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="15"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="C6" s="15" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="17"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="17" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C7" s="15" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="17" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C8" s="15" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="17" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C9" s="15" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="17" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C10" s="15" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="17" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C13" s="15" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="17" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C14" s="15" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="17" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C15" s="15" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="17" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C16" s="15" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="17" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C17" s="15" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B18" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C18" s="15" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B19" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C19" s="15" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="16" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B20" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C20" s="15" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
+    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>180</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="18" t="s">
+      <c r="B21" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="16" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2887,16 +5500,206 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1D1DE12-74FD-4059-B821-93BCBC218956}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M64" sqref="M64"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F9" sqref="A1:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="42" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="42" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="42" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="C5" s="40" t="s">
+        <v>326</v>
+      </c>
+      <c r="D5" s="40" t="s">
+        <v>327</v>
+      </c>
+      <c r="E5" s="40" t="s">
+        <v>229</v>
+      </c>
+      <c r="F5" s="42" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="40" t="s">
+        <v>141</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>329</v>
+      </c>
+      <c r="D6" s="40" t="s">
+        <v>329</v>
+      </c>
+      <c r="E6" s="40" t="s">
+        <v>217</v>
+      </c>
+      <c r="F6" s="42" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="42" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="E8" s="40" t="s">
+        <v>233</v>
+      </c>
+      <c r="F8" s="42" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="45" t="s">
+        <v>185</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Drawings/Target3001/Header_Tables.xlsx
+++ b/Drawings/Target3001/Header_Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Develop\FYP\Drawings\Target3001\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC68A10B-9737-4288-AE55-33707B254705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA33B62B-A151-444B-95C3-A3574453CA5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="31800" firstSheet="2" activeTab="6" xr2:uid="{1169C5DA-BBE0-4116-BBF3-A5E12840D734}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{1169C5DA-BBE0-4116-BBF3-A5E12840D734}"/>
   </bookViews>
   <sheets>
     <sheet name="PIn_Config_Nuleo" sheetId="9" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="367">
   <si>
     <t>Header Pin</t>
   </si>
@@ -1127,6 +1127,36 @@
   </si>
   <si>
     <t xml:space="preserve">ADC_Pin5, DAC_Pin10, Digital_in_Pin2, Digital_Out_Pin2, </t>
+  </si>
+  <si>
+    <t>DAC_OUTPUT</t>
+  </si>
+  <si>
+    <t>ADC_Header</t>
+  </si>
+  <si>
+    <t>PIn_Config_NUCLEO Arduino Layout</t>
+  </si>
+  <si>
+    <t>PIn_Config_NUCLEO Morpho  Layout</t>
+  </si>
+  <si>
+    <t>DAC_And_CS_Header</t>
+  </si>
+  <si>
+    <t>ADC_Analog_Output</t>
+  </si>
+  <si>
+    <t>Digital_Output</t>
+  </si>
+  <si>
+    <t>Digital_OUT_Header</t>
+  </si>
+  <si>
+    <t>Digital_Input</t>
+  </si>
+  <si>
+    <t>DIgital_In_Header</t>
   </si>
 </sst>
 </file>
@@ -1189,7 +1219,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1332,43 +1362,14 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1388,15 +1389,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1423,24 +1415,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1493,6 +1467,39 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1829,18 +1836,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CA3F4AE-69E8-44F7-90D3-1A030B9FE1A0}">
-  <dimension ref="A1:P111"/>
+  <dimension ref="A1:P112"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" style="21" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" style="21" customWidth="1"/>
-    <col min="3" max="3" width="24.5703125" style="21" customWidth="1"/>
-    <col min="4" max="4" width="24" style="21" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" style="15" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" style="15" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="24" style="15" customWidth="1"/>
     <col min="5" max="5" width="39.28515625" customWidth="1"/>
     <col min="6" max="6" width="19.42578125" customWidth="1"/>
     <col min="7" max="7" width="17.7109375" customWidth="1"/>
@@ -1849,160 +1856,150 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="39" t="s">
+        <v>359</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="41"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
         <v>266</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B2" s="34" t="s">
         <v>267</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C2" s="34" t="s">
         <v>179</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D2" s="34" t="s">
         <v>268</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E2" s="34" t="s">
         <v>269</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F2" s="9" t="s">
         <v>330</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G2" s="10" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
         <v>270</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="1">
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="1">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G4" s="3" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="1">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="1">
         <v>3</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="1">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="F5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="D6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G6" s="10" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="1">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="1">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="D7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="1">
+      <c r="F7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="1">
         <v>6</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>355</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="1">
-        <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>4</v>
@@ -2013,1703 +2010,1735 @@
       <c r="E8" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>5</v>
+      <c r="F8" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
+      <c r="A9" s="2"/>
       <c r="B9" s="1">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="1">
         <v>8</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="1" t="s">
+      <c r="D10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="32" t="s">
+      <c r="F10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="20" t="s">
         <v>277</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B11" s="1">
         <v>1</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="1">
+      <c r="F11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="1">
         <v>2</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="1">
+      <c r="F12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="1">
         <v>3</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="1">
-        <v>4</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="F13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="1">
+        <v>4</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="1">
-        <v>5</v>
-      </c>
-      <c r="C14" s="1" t="s">
+      <c r="F14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="1">
+        <v>5</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="1">
+      <c r="F15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="1">
         <v>6</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="32" t="s">
+      <c r="F16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="20" t="s">
         <v>286</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B17" s="1">
         <v>10</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="1">
+      <c r="F17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="1">
         <v>9</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="1">
+      <c r="F18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="1">
         <v>8</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="1" t="s">
+      <c r="D19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="1">
+      <c r="F19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="1">
         <v>7</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E19" s="1" t="s">
+      <c r="C20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="F19" s="15" t="s">
+      <c r="F20" s="9" t="s">
         <v>339</v>
       </c>
-      <c r="G19" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="1">
+      <c r="G20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="1">
         <v>6</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="F20" s="15" t="s">
+      <c r="F21" s="9" t="s">
         <v>336</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="G21" s="3" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="1">
-        <v>5</v>
-      </c>
-      <c r="C21" s="1" t="s">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="1">
+        <v>5</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="F21" s="15" t="s">
+      <c r="F22" s="9" t="s">
         <v>332</v>
       </c>
-      <c r="G21" s="6" t="s">
+      <c r="G22" s="3" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="1">
-        <v>4</v>
-      </c>
-      <c r="C22" s="1" t="s">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="1">
+        <v>4</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="F22" s="15" t="s">
+      <c r="F23" s="9" t="s">
         <v>333</v>
       </c>
-      <c r="G22" s="6" t="s">
+      <c r="G23" s="3" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="1">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="1">
         <v>3</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="32" t="s">
+      <c r="F24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="20" t="s">
         <v>286</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B25" s="1">
         <v>2</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="1">
+      <c r="F25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="1">
         <v>1</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F25" s="15" t="s">
+      <c r="E26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="9" t="s">
         <v>340</v>
       </c>
-      <c r="G25" s="16" t="s">
+      <c r="G26" s="10" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="32" t="s">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="20" t="s">
         <v>295</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B27" s="1">
         <v>8</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F26" s="38" t="s">
+      <c r="E27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27" s="26" t="s">
         <v>354</v>
       </c>
-      <c r="G26" s="39" t="s">
+      <c r="G27" s="27" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
-      <c r="B27" s="1">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" s="1">
         <v>7</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
-      <c r="B28" s="1">
+      <c r="F28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="1">
         <v>6</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-      <c r="B29" s="1">
-        <v>5</v>
-      </c>
-      <c r="C29" s="1" t="s">
+      <c r="F29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" s="1">
+        <v>5</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
-      <c r="B30" s="1">
-        <v>4</v>
-      </c>
-      <c r="C30" s="1" t="s">
+      <c r="E30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+      <c r="B31" s="1">
+        <v>4</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
-      <c r="B31" s="1">
+      <c r="F31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+      <c r="B32" s="1">
         <v>3</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F31" s="15" t="s">
+      <c r="E32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" s="9" t="s">
         <v>352</v>
       </c>
-      <c r="G31" s="16" t="s">
+      <c r="G32" s="10" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="5"/>
-      <c r="B32" s="1">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" s="1">
         <v>2</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="F32" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="7"/>
-      <c r="B33" s="8">
+      <c r="F33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="4"/>
+      <c r="B34" s="5">
         <v>1</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C34" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D34" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="E33" s="8" t="s">
+      <c r="E34" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="F33" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G33" s="34" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" s="20"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
+      <c r="F34" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G34" s="22" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="35" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="20"/>
-      <c r="B35" s="20"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
+      <c r="A35" s="14"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="42" t="s">
+        <v>360</v>
+      </c>
+      <c r="B36" s="43"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="44"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B37" s="34" t="s">
         <v>301</v>
       </c>
-      <c r="C36" s="12" t="s">
+      <c r="C37" s="9" t="s">
         <v>330</v>
       </c>
-      <c r="D36" s="13" t="s">
+      <c r="D37" s="10" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="32" t="s">
+    <row r="38" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="20" t="s">
         <v>302</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38" s="5">
+      <c r="B38" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
         <v>1</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B39" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39" s="5">
+      <c r="C39" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
         <v>3</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40" s="5">
-        <v>5</v>
-      </c>
-      <c r="B40" s="1" t="s">
+      <c r="C40" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>5</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A41" s="5">
+      <c r="C41" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
         <v>7</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B42" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A42" s="5">
+      <c r="C42" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
         <v>9</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43" s="5">
+      <c r="B43" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
         <v>11</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="K43" s="30"/>
-      <c r="L43" s="30"/>
-      <c r="M43" s="30"/>
-      <c r="N43" s="30"/>
-      <c r="O43" s="30"/>
-      <c r="P43" s="30"/>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A44" s="5">
+      <c r="B44" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K44" s="18"/>
+      <c r="L44" s="18"/>
+      <c r="M44" s="18"/>
+      <c r="N44" s="18"/>
+      <c r="O44" s="18"/>
+      <c r="P44" s="18"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
         <v>13</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B45" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="K44" s="20"/>
-      <c r="L44" s="20"/>
-      <c r="M44" s="20"/>
-      <c r="N44" s="20"/>
-      <c r="O44" s="21"/>
-      <c r="P44" s="30"/>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A45" s="5">
+      <c r="C45" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K45" s="14"/>
+      <c r="L45" s="14"/>
+      <c r="M45" s="14"/>
+      <c r="N45" s="14"/>
+      <c r="O45" s="15"/>
+      <c r="P45" s="18"/>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
         <v>15</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B46" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="K45" s="20"/>
-      <c r="L45" s="20"/>
-      <c r="M45" s="20"/>
-      <c r="N45" s="20"/>
-      <c r="O45" s="21"/>
-      <c r="P45" s="31"/>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A46" s="5">
+      <c r="C46" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K46" s="14"/>
+      <c r="L46" s="14"/>
+      <c r="M46" s="14"/>
+      <c r="N46" s="14"/>
+      <c r="O46" s="15"/>
+      <c r="P46" s="19"/>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
         <v>17</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B47" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="K46" s="20"/>
-      <c r="L46" s="20"/>
-      <c r="M46" s="20"/>
-      <c r="N46" s="20"/>
-      <c r="O46" s="35"/>
-      <c r="P46" s="31"/>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A47" s="5">
+      <c r="C47" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K47" s="14"/>
+      <c r="L47" s="14"/>
+      <c r="M47" s="14"/>
+      <c r="N47" s="14"/>
+      <c r="O47" s="23"/>
+      <c r="P47" s="19"/>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
         <v>19</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="K47" s="20"/>
-      <c r="L47" s="20"/>
-      <c r="M47" s="20"/>
-      <c r="N47" s="20"/>
-      <c r="O47" s="20"/>
-      <c r="P47" s="31"/>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A48" s="5">
+      <c r="B48" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K48" s="14"/>
+      <c r="L48" s="14"/>
+      <c r="M48" s="14"/>
+      <c r="N48" s="14"/>
+      <c r="O48" s="14"/>
+      <c r="P48" s="19"/>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
         <v>21</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B49" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="K48" s="20"/>
-      <c r="L48" s="20"/>
-      <c r="M48" s="20"/>
-      <c r="N48" s="20"/>
-      <c r="O48" s="21"/>
-      <c r="P48" s="31"/>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A49" s="5">
+      <c r="C49" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K49" s="14"/>
+      <c r="L49" s="14"/>
+      <c r="M49" s="14"/>
+      <c r="N49" s="14"/>
+      <c r="O49" s="15"/>
+      <c r="P49" s="19"/>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
         <v>23</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B50" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="K49" s="20"/>
-      <c r="L49" s="20"/>
-      <c r="M49" s="20"/>
-      <c r="N49" s="20"/>
-      <c r="O49" s="21"/>
-      <c r="P49" s="31"/>
-    </row>
-    <row r="50" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="5">
+      <c r="C50" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K50" s="14"/>
+      <c r="L50" s="14"/>
+      <c r="M50" s="14"/>
+      <c r="N50" s="14"/>
+      <c r="O50" s="15"/>
+      <c r="P50" s="19"/>
+    </row>
+    <row r="51" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
         <v>25</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B51" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C51" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="D50" s="6" t="s">
+      <c r="D51" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="K50" s="20"/>
-      <c r="L50" s="20"/>
-      <c r="M50" s="20"/>
-      <c r="N50" s="20"/>
-      <c r="O50" s="21"/>
-      <c r="P50" s="31"/>
-    </row>
-    <row r="51" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="5">
+      <c r="K51" s="14"/>
+      <c r="L51" s="14"/>
+      <c r="M51" s="14"/>
+      <c r="N51" s="14"/>
+      <c r="O51" s="15"/>
+      <c r="P51" s="19"/>
+    </row>
+    <row r="52" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
         <v>27</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B52" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C52" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="D51" s="6" t="s">
+      <c r="D52" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="K51" s="20"/>
-      <c r="L51" s="20"/>
-      <c r="M51" s="20"/>
-      <c r="N51" s="20"/>
-      <c r="O51" s="21"/>
-      <c r="P51" s="31"/>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A52" s="5">
+      <c r="K52" s="14"/>
+      <c r="L52" s="14"/>
+      <c r="M52" s="14"/>
+      <c r="N52" s="14"/>
+      <c r="O52" s="15"/>
+      <c r="P52" s="19"/>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
         <v>29</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B53" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="C52" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="K52" s="20"/>
-      <c r="L52" s="20"/>
-      <c r="M52" s="20"/>
-      <c r="N52" s="20"/>
-      <c r="O52" s="21"/>
-      <c r="P52" s="31"/>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A53" s="5">
+      <c r="C53" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K53" s="14"/>
+      <c r="L53" s="14"/>
+      <c r="M53" s="14"/>
+      <c r="N53" s="14"/>
+      <c r="O53" s="15"/>
+      <c r="P53" s="19"/>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
         <v>31</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B54" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="K53" s="20"/>
-      <c r="L53" s="20"/>
-      <c r="M53" s="20"/>
-      <c r="N53" s="20"/>
-      <c r="O53" s="36"/>
-      <c r="P53" s="37"/>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A54" s="5">
+      <c r="C54" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K54" s="14"/>
+      <c r="L54" s="14"/>
+      <c r="M54" s="14"/>
+      <c r="N54" s="14"/>
+      <c r="O54" s="24"/>
+      <c r="P54" s="25"/>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
         <v>33</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B55" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="C54" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="K54" s="20"/>
-      <c r="L54" s="20"/>
-      <c r="M54" s="20"/>
-      <c r="N54" s="20"/>
-      <c r="O54" s="21"/>
-      <c r="P54" s="31"/>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A55" s="5">
+      <c r="C55" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K55" s="14"/>
+      <c r="L55" s="14"/>
+      <c r="M55" s="14"/>
+      <c r="N55" s="14"/>
+      <c r="O55" s="15"/>
+      <c r="P55" s="19"/>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
         <v>35</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B56" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C55" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="K55" s="20"/>
-      <c r="L55" s="20"/>
-      <c r="M55" s="20"/>
-      <c r="N55" s="20"/>
-      <c r="O55" s="21"/>
-      <c r="P55" s="31"/>
-    </row>
-    <row r="56" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="32" t="s">
+      <c r="C56" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K56" s="14"/>
+      <c r="L56" s="14"/>
+      <c r="M56" s="14"/>
+      <c r="N56" s="14"/>
+      <c r="O56" s="15"/>
+      <c r="P56" s="19"/>
+    </row>
+    <row r="57" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="20" t="s">
         <v>304</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A57" s="5">
+      <c r="B57" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
         <v>2</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B58" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="C57" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A58" s="5">
-        <v>4</v>
-      </c>
-      <c r="B58" s="1" t="s">
+      <c r="C58" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <v>4</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C58" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A59" s="5">
+      <c r="C59" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
         <v>6</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B60" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C59" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A60" s="5">
+      <c r="C60" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
         <v>8</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A61" s="5">
+      <c r="B61" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
         <v>10</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A62" s="5">
+      <c r="B62" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
         <v>12</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B63" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="C62" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D62" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A63" s="5">
+      <c r="C63" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
         <v>14</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B64" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="C63" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D63" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A64" s="5">
+      <c r="C64" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
         <v>16</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B65" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="C64" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D64" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="5">
+      <c r="C65" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
         <v>18</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B66" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C65" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="5">
+      <c r="C66" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="2">
         <v>20</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D66" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="5">
+      <c r="B67" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
         <v>22</v>
       </c>
-      <c r="B67" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D67" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="5">
+      <c r="B68" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="2">
         <v>24</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B69" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C68" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="5">
+      <c r="C69" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="2">
         <v>26</v>
       </c>
-      <c r="B69" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D69" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="5">
+      <c r="B70" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="2">
         <v>28</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B71" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="C70" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="5">
+      <c r="C71" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="2">
         <v>30</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B72" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="C71" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D71" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="5">
+      <c r="C72" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="2">
         <v>32</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B73" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C72" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D72" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="5">
+      <c r="C73" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="2">
         <v>34</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B74" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C73" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D73" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="5">
+      <c r="C74" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="2">
         <v>36</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B75" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="C74" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D74" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A75" s="32" t="s">
+      <c r="C75" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A76" s="20" t="s">
         <v>306</v>
       </c>
-      <c r="B75" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D75" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="5">
+      <c r="B76" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="2">
         <v>1</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B77" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="C76" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D76" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="5">
+      <c r="C77" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="2">
         <v>3</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B78" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="C77" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D77" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="5">
-        <v>5</v>
-      </c>
-      <c r="B78" s="1" t="s">
+      <c r="C78" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="2">
+        <v>5</v>
+      </c>
+      <c r="B79" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="C78" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D78" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="5">
+      <c r="C79" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="2">
         <v>7</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B80" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C79" s="15" t="s">
+      <c r="C80" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D79" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="5">
+      <c r="D80" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="2">
         <v>9</v>
       </c>
-      <c r="B80" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C80" s="15" t="s">
+      <c r="B81" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C81" s="9" t="s">
         <v>347</v>
       </c>
-      <c r="D80" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="5">
+      <c r="D81" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="2">
         <v>11</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B82" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="C81" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D81" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="5">
+      <c r="C82" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="2">
         <v>13</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B83" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="C82" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D82" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="5">
+      <c r="C83" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="2">
         <v>15</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B84" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C83" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D83" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="5">
+      <c r="C84" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="2">
         <v>17</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B85" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="C84" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D84" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="5">
+      <c r="C85" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="2">
         <v>19</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B86" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="C85" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D85" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="5">
+      <c r="C86" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="2">
         <v>21</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B87" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C86" s="15" t="s">
+      <c r="C87" s="9" t="s">
         <v>340</v>
       </c>
-      <c r="D86" s="16" t="s">
+      <c r="D87" s="10" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="5">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="2">
         <v>23</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="B88" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="C87" s="15" t="s">
+      <c r="C88" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="D87" s="16" t="s">
+      <c r="D88" s="10" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="5">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="2">
         <v>25</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="B89" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C88" s="15" t="s">
+      <c r="C89" s="9" t="s">
         <v>346</v>
       </c>
-      <c r="D88" s="16" t="s">
+      <c r="D89" s="10" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="5">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="2">
         <v>27</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B90" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="C89" s="15" t="s">
+      <c r="C90" s="9" t="s">
         <v>351</v>
       </c>
-      <c r="D89" s="16" t="s">
+      <c r="D90" s="10" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="5">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="2">
         <v>29</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="B91" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C90" s="15" t="s">
+      <c r="C91" s="9" t="s">
         <v>348</v>
       </c>
-      <c r="D90" s="16" t="s">
+      <c r="D91" s="10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="5">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="2">
         <v>31</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="B92" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="C91" s="15" t="s">
+      <c r="C92" s="9" t="s">
         <v>349</v>
       </c>
-      <c r="D91" s="16" t="s">
+      <c r="D92" s="10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="5">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="2">
         <v>33</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="B93" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="C92" s="15" t="s">
+      <c r="C93" s="9" t="s">
         <v>352</v>
       </c>
-      <c r="D92" s="16" t="s">
+      <c r="D93" s="10" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A93" s="32" t="s">
+    <row r="94" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A94" s="20" t="s">
         <v>307</v>
       </c>
-      <c r="B93" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D93" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="5">
+      <c r="B94" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="2">
         <v>2</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="B95" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="C94" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D94" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="5">
-        <v>4</v>
-      </c>
-      <c r="B95" s="1" t="s">
+      <c r="C95" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="2">
+        <v>4</v>
+      </c>
+      <c r="B96" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C95" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D95" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="5">
+      <c r="C96" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="2">
         <v>6</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="B97" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="C96" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D96" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="5">
+      <c r="C97" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="2">
         <v>8</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="B98" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C97" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D97" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="5">
+      <c r="C98" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="2">
         <v>10</v>
       </c>
-      <c r="B98" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D98" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="5">
+      <c r="B99" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="2">
         <v>12</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="B100" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="C99" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D99" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="5">
+      <c r="C100" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="2">
         <v>14</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="B101" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C100" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D100" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="5">
+      <c r="C101" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="2">
         <v>16</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="B102" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C101" s="15" t="s">
+      <c r="C102" s="9" t="s">
         <v>345</v>
       </c>
-      <c r="D101" s="16" t="s">
+      <c r="D102" s="10" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="5">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="2">
         <v>18</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="B103" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C102" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D102" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="5">
+      <c r="C103" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="2">
         <v>20</v>
       </c>
-      <c r="B103" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C103" s="15" t="s">
+      <c r="B104" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C104" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="D103" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="5">
+      <c r="D104" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="2">
         <v>22</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="B105" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C104" s="15" t="s">
+      <c r="C105" s="9" t="s">
         <v>342</v>
       </c>
-      <c r="D104" s="16" t="s">
+      <c r="D105" s="10" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="5">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="2">
         <v>24</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="B106" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C105" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D105" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="5">
+      <c r="C106" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="2">
         <v>26</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="B107" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="C106" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D106" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="5">
+      <c r="C107" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="2">
         <v>28</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="B108" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C107" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D107" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="5">
+      <c r="C108" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="2">
         <v>30</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="B109" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="C108" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D108" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="5">
+      <c r="C109" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="2">
         <v>32</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="B110" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="C109" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D109" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="7">
+      <c r="C110" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="4">
         <v>34</v>
       </c>
-      <c r="B110" s="8" t="s">
+      <c r="B111" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="C110" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D110" s="34" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111"/>
-      <c r="B111"/>
-      <c r="C111"/>
-      <c r="D111"/>
+      <c r="C111" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D111" s="22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112"/>
+      <c r="B112"/>
+      <c r="C112"/>
+      <c r="D112"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <mergeCells count="2">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A36:D36"/>
+  </mergeCells>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;A</oddHeader>
+    <oddFooter>Page &amp;P of &amp;N</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFC85674-D21E-4BE3-BC4A-758C244E3C46}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3722,284 +3751,302 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="39" t="s">
+        <v>361</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="41"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D2" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E2" s="34" t="s">
         <v>308</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F2" s="16" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="15" t="s">
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F3" s="10" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="16" t="s">
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="10" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="16" t="s">
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="10" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="D6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F6" s="10" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="15" t="s">
+      <c r="D7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>350</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F7" s="10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="D8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F8" s="10" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="29"/>
-    </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="17"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="16" t="s">
+      <c r="B10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="10" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="C11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F11" s="10" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="1" t="s">
+      <c r="C12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E12" s="9" t="s">
         <v>310</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F12" s="10" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="1" t="s">
+      <c r="C13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="F13" s="10" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F13" s="16" t="s">
+      <c r="B14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="10" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
+    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="19" t="s">
+      <c r="B15" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="13" t="s">
         <v>185</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;A</oddHeader>
+    <oddFooter>Page &amp;P of &amp;N</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58694540-B6EE-4213-9030-4FB1C6BD2FEC}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4011,247 +4058,262 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="39" t="s">
+        <v>357</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="41"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C2" s="10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B3" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C3" s="10" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B4" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C4" s="10" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B5" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C5" s="10" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B6" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C6" s="10" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B7" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C7" s="10" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B8" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C8" s="10" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B9" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C9" s="10" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B10" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C10" s="10" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B11" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C11" s="10" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B12" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C12" s="10" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B13" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C13" s="10" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B14" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C14" s="10" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B15" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C15" s="10" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B16" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C16" s="10" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B17" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C17" s="10" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B18" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C18" s="10" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B19" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C19" s="10" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B20" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C20" s="10" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B21" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C21" s="10" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="17" t="s">
+    <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B22" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C22" s="13" t="s">
         <v>45</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;A</oddHeader>
+    <oddFooter>Page &amp;P of &amp;N</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E314D53A-82FA-428C-ABAB-4BBAF6D8ADCE}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4264,277 +4326,295 @@
     <col min="6" max="6" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="39" t="s">
+        <v>358</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="41"/>
+    </row>
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C2" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D2" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E2" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F2" s="37" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="16" t="s">
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="F3" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E4" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F4" s="30" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="22" t="s">
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="35" t="s">
         <v>259</v>
       </c>
-      <c r="F4" s="25" t="s">
+      <c r="F5" s="30" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E6" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="F6" s="30" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E7" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="F6" s="25" t="s">
+      <c r="F7" s="30" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E8" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="F7" s="25" t="s">
+      <c r="F8" s="30" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="C9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E9" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="F8" s="25" t="s">
+      <c r="F9" s="30" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="16" t="s">
+      <c r="D10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="F9" s="25" t="s">
+      <c r="F10" s="30" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="C11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E11" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="F10" s="25" t="s">
+      <c r="F11" s="30" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="1" t="s">
+      <c r="C12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="E11" s="23" t="s">
+      <c r="E12" s="36" t="s">
         <v>265</v>
       </c>
-      <c r="F11" s="26" t="s">
+      <c r="F12" s="38" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="B13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E13" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="F12" s="25" t="s">
+      <c r="F13" s="30" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
+    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="8" t="s">
+      <c r="B14" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D14" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E14" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="F13" s="27" t="s">
+      <c r="F14" s="33" t="s">
         <v>185</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;A</oddHeader>
+    <oddFooter>Page &amp;P of &amp;N</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41BC11EE-7895-4E9E-A2BE-F36EFA9FFEFC}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4545,264 +4625,279 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="39" t="s">
+        <v>362</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="41"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C2" s="10" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B3" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="15" t="str">
-        <f xml:space="preserve"> "MCP3008_" &amp; B2</f>
+      <c r="C3" s="10" t="str">
+        <f xml:space="preserve"> "MCP3008_" &amp; B3</f>
         <v>MCP3008_U1_ADC_CH7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B4" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="15" t="str">
-        <f t="shared" ref="C3:C17" si="0" xml:space="preserve"> "MCP3008_" &amp; B3</f>
+      <c r="C4" s="10" t="str">
+        <f t="shared" ref="C4:C18" si="0" xml:space="preserve"> "MCP3008_" &amp; B4</f>
         <v>MCP3008_U2_ADC_CH0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B5" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="C4" s="15" t="str">
+      <c r="C5" s="10" t="str">
         <f t="shared" si="0"/>
         <v>MCP3008_U1_ADC_CH6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B6" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="15" t="str">
+      <c r="C6" s="10" t="str">
         <f t="shared" si="0"/>
         <v>MCP3008_U1_ADC_CH1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B7" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="15" t="str">
+      <c r="C7" s="10" t="str">
         <f t="shared" si="0"/>
         <v>MCP3008_U1_ADC_CH5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B8" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="15" t="str">
+      <c r="C8" s="10" t="str">
         <f t="shared" si="0"/>
         <v>MCP3008_U2_ADC_CH2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B9" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="C8" s="15" t="str">
+      <c r="C9" s="10" t="str">
         <f t="shared" si="0"/>
         <v>MCP3008_U1_ADC_CH4</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B10" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="15" t="str">
+      <c r="C10" s="10" t="str">
         <f t="shared" si="0"/>
         <v>MCP3008_U2_ADC_CH3</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B11" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="C10" s="15" t="str">
+      <c r="C11" s="10" t="str">
         <f t="shared" si="0"/>
         <v>MCP3008_U1_ADC_CH3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B12" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="C11" s="15" t="str">
+      <c r="C12" s="10" t="str">
         <f t="shared" si="0"/>
         <v>MCP3008_U2_ADC_CH4</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B13" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="C12" s="15" t="str">
+      <c r="C13" s="10" t="str">
         <f t="shared" si="0"/>
         <v>MCP3008_U1_ADC_CH2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B14" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="C13" s="15" t="str">
+      <c r="C14" s="10" t="str">
         <f t="shared" si="0"/>
         <v>MCP3008_U2_ADC_CH5</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B15" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="C14" s="15" t="str">
+      <c r="C15" s="10" t="str">
         <f t="shared" si="0"/>
         <v>MCP3008_U1_ADC_CH1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B16" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="C15" s="15" t="str">
+      <c r="C16" s="10" t="str">
         <f t="shared" si="0"/>
         <v>MCP3008_U2_ADC_CH6</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B17" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="C16" s="15" t="str">
+      <c r="C17" s="10" t="str">
         <f t="shared" si="0"/>
         <v>MCP3008_U1_ADC_CH0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B18" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="C17" s="15" t="str">
+      <c r="C18" s="10" t="str">
         <f t="shared" si="0"/>
         <v>MCP3008_U2_ADC_CH7</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
+      <c r="B19" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
+      <c r="B20" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="17" t="s">
+      <c r="B21" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="19" t="s">
+      <c r="B22" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="13" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;A</oddHeader>
+    <oddFooter>Page &amp;P of &amp;N</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EED6B09C-5866-4B46-AB16-4CF9C5E025AE}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="A1:C21"/>
+      <selection activeCell="G34" sqref="G33:G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4813,246 +4908,261 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="39" t="s">
+        <v>363</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="41"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C2" s="10" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="15"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="B3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="10"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B4" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C4" s="10" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B5" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C5" s="10" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B6" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C6" s="10" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B7" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C7" s="10" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B8" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C8" s="10" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B9" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C9" s="10" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B10" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C10" s="10" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B11" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C11" s="10" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
+      <c r="B12" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
+      <c r="B13" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B14" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C14" s="10" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B15" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C15" s="10" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B16" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C16" s="10" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B17" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C17" s="10" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B18" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C18" s="10" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B19" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C19" s="10" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B20" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C20" s="10" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B21" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C21" s="10" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="17" t="s">
+    <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="16" t="s">
+      <c r="B22" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="13" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;A</oddHeader>
+    <oddFooter>Page &amp;P of &amp;N</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4A1FE47-792E-4C5B-871D-8B8E78BB60A7}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F9" sqref="A1:F9"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5066,196 +5176,214 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="39" t="s">
+        <v>364</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="41"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C2" s="34" t="s">
         <v>139</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D2" s="34" t="s">
         <v>140</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E2" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F2" s="37" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="6" t="s">
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F4" s="3" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="6" t="s">
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="32" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F6" s="3" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F7" s="3" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="32" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="6" t="s">
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="32" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F9" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="33" t="s">
+    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="34" t="s">
+      <c r="B10" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="22" t="s">
         <v>185</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;A</oddHeader>
+    <oddFooter>Page &amp;P of &amp;N</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05A8B82B-DFCD-4D8F-A1C9-1038553F50C4}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="C22" sqref="A1:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5266,246 +5394,261 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="39" t="s">
+        <v>365</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="41"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C2" s="10" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="15"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="B3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="10"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B4" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C4" s="10" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B5" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C5" s="10" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B6" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C6" s="10" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B7" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C7" s="10" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B8" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C8" s="10" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B9" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C9" s="10" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B10" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C10" s="10" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B11" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C11" s="10" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
+      <c r="B12" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
+      <c r="B13" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B14" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C14" s="10" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B15" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C15" s="10" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B16" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C16" s="10" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B17" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C17" s="10" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B18" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C18" s="10" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B19" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C19" s="10" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B20" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C20" s="10" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B21" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C21" s="10" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="17" t="s">
+    <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="16" t="s">
+      <c r="B22" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="13" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>Page &amp;P of &amp;N</oddHeader>
+    <oddFooter>Page &amp;P of &amp;N</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1D1DE12-74FD-4059-B821-93BCBC218956}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="A1:F9"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5518,188 +5661,205 @@
     <col min="6" max="6" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="39" t="s">
+        <v>366</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="41"/>
+    </row>
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C2" s="34" t="s">
         <v>324</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D2" s="34" t="s">
         <v>325</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E2" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F2" s="37" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="40" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="40" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="42" t="s">
+      <c r="B3" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="30" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="41" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B4" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C4" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="40" t="s">
+      <c r="D4" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="40" t="s">
+      <c r="E4" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="42" t="s">
+      <c r="F4" s="30" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="41" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="40" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="40" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="42" t="s">
+      <c r="B5" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="30" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="41" t="s">
+    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="B6" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C6" s="28" t="s">
         <v>326</v>
       </c>
-      <c r="D5" s="40" t="s">
+      <c r="D6" s="28" t="s">
         <v>327</v>
       </c>
-      <c r="E5" s="40" t="s">
+      <c r="E6" s="28" t="s">
         <v>229</v>
       </c>
-      <c r="F5" s="42" t="s">
+      <c r="F6" s="30" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="41" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B7" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C7" s="28" t="s">
         <v>329</v>
       </c>
-      <c r="D6" s="40" t="s">
+      <c r="D7" s="28" t="s">
         <v>329</v>
       </c>
-      <c r="E6" s="40" t="s">
+      <c r="E7" s="28" t="s">
         <v>217</v>
       </c>
-      <c r="F6" s="42" t="s">
+      <c r="F7" s="30" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="41" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="40" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="40" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="42" t="s">
+      <c r="B8" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="30" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="41" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="40" t="s">
+      <c r="B9" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C9" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="D8" s="40" t="s">
+      <c r="D9" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="E8" s="40" t="s">
+      <c r="E9" s="28" t="s">
         <v>233</v>
       </c>
-      <c r="F8" s="42" t="s">
+      <c r="F9" s="30" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="43" t="s">
+    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="45" t="s">
+      <c r="B10" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="33" t="s">
         <v>185</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;A</oddHeader>
+    <oddFooter>Page &amp;P of &amp;N</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>